--- a/exported.xlsx
+++ b/exported.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>name=Item_Code,dataType=text</t>
+          <t>name=Item_Code,dataType=text,title=Code,updateCriteria=true</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -508,42 +508,42 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>name=Protection,dataType=number</t>
+          <t>name=Protection,dataType=number,title=Protection</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>name=Item_Value,dataType=number</t>
+          <t>name=Item_Value,dataType=number,title=Value</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>name=Type,dataType=entity</t>
+          <t>name=Type,dataType=entity:Item_Types.Type</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>name=Tech_Age,dataType=entit</t>
+          <t>name=Tech_Age,dataType=entity:Technological_Ages.Age</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>name=Released,dataType=checkbox</t>
+          <t>name=Released,dataType=checkbox,title=Released</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>name=Weapon,dataType=checkbox</t>
+          <t>name=Weapon,dataType=checkbox,title=Weapon</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>name=Armor,dataType=checkbox</t>
+          <t>name=Armor,dataType=checkbox,title=Armor</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>name=Shield,dataType=checkbox</t>
+          <t>name=Shield,dataType=checkbox,title=Shield</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
